--- a/WBMicrobiomeFFQ/DB and Documents/WBMicrobiomeFFQ.xlsx
+++ b/WBMicrobiomeFFQ/DB and Documents/WBMicrobiomeFFQ.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tbFormMain!$A$1:$T$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tbFormMain!$A$1:$T$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tblOptions!$C$1:$H$1</definedName>
     <definedName name="_Toc281225520" localSheetId="0">tbFormMain!#REF!</definedName>
     <definedName name="_Toc299283503" localSheetId="0">tbFormMain!#REF!</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="389">
   <si>
     <t>Qdesceng</t>
   </si>
@@ -164,9 +164,6 @@
     <t>605. Is the baby still breastfeeding, or is he/she completely weaned?</t>
   </si>
   <si>
-    <t>606. wkïwUi (bvg) hLb me©‡kl ey‡Ki `ya cvb K‡iwQj,ZLb Zvi eqm KZ wQj ?</t>
-  </si>
-  <si>
     <t>607 M. MZ mßv‡n wK †Kvb w`b wkïi (bvg) ¶zavg›`v n‡qwQj?</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>Ab¨vb¨ (wbwÏ©ó Kiyb)</t>
   </si>
   <si>
-    <t>FrmYeartoMin</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>c605</t>
   </si>
   <si>
-    <t>c606</t>
-  </si>
-  <si>
     <t>c607</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
   </si>
   <si>
     <t>1.2 Target Child’s Name</t>
-  </si>
-  <si>
-    <t>606. How old was [NAME] the last time he/she was breastfed? Write 99 if Don’t know</t>
   </si>
   <si>
     <t>FrmMultiple</t>
@@ -1720,7 +1708,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,12 +1841,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2334,13 +2316,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DK65"/>
+  <dimension ref="A1:DK64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1"/>
@@ -2523,344 +2505,344 @@
       <c r="DK1" s="7"/>
     </row>
     <row r="2" spans="1:115" s="31" customFormat="1" ht="19.5">
-      <c r="A2" s="77">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="61" t="s">
+      <c r="F2" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="61" t="s">
+      <c r="T2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="63" t="str">
+      <c r="U2" s="61" t="str">
         <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A2&amp;"', '" &amp;B2&amp;"','" &amp;C2&amp;"', '" &amp;D2&amp;"','" &amp;E2&amp;"','" &amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"', '"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"','"&amp;Q2&amp;"',"&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','FrmDataID', 'tblMainques','1.1 bs ','Cluster Id &amp; Mother Id','','c1_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="3" spans="1:115" s="31" customFormat="1" ht="19.5">
-      <c r="A3" s="77">
+      <c r="A3" s="75">
         <v>2</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="56">
         <v>1.2</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="61" t="s">
+      <c r="F3" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="63" t="str">
-        <f t="shared" ref="U3:U32" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
+      <c r="U3" s="61" t="str">
+        <f t="shared" ref="U3:U31" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'c1_2','FrmText', 'tblMainques','1.2','1.2 Target Child’s Name','','c1_10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-    </row>
-    <row r="4" spans="1:115" s="61" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A4" s="77">
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+    </row>
+    <row r="4" spans="1:115" s="59" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A4" s="75">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="61" t="s">
+      <c r="F4" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="61" t="s">
+      <c r="T4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="63" t="str">
+      <c r="U4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'c1_10','FrmComboBox', 'tblMainques','1.1','1.10 FRA Name and ID','','c1_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="5" spans="1:115" s="32" customFormat="1" ht="13.5">
-      <c r="A5" s="77">
+      <c r="A5" s="75">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="61" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="61" t="s">
+      <c r="T5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="63" t="str">
+      <c r="U5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'c1_11','FrmDate', 'tblMainques','1.11 Z_¨ msMÖ‡ni ZvwiL ','1.11 Date of Interview','','c1_12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-    </row>
-    <row r="6" spans="1:115" s="71" customFormat="1" ht="31.5">
-      <c r="A6" s="77">
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+    </row>
+    <row r="6" spans="1:115" s="69" customFormat="1" ht="31.5">
+      <c r="A6" s="75">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>362</v>
+      <c r="B6" s="62" t="s">
+        <v>358</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="64">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F6" s="86" t="s">
-        <v>363</v>
-      </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="61" t="s">
+      <c r="F6" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="61" t="s">
+      <c r="S6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="61" t="s">
+      <c r="T6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="63" t="str">
+      <c r="U6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'c1_12','FrmSingleChoice', 'tblMainques','1.12','1.12 Is this a daily, weekly, or monthly visit?','','M1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
     </row>
     <row r="7" spans="1:115" s="32" customFormat="1" ht="25.5">
-      <c r="A7" s="77">
+      <c r="A7" s="75">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="61" t="s">
+      <c r="E7" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="61" t="s">
+      <c r="S7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="63" t="str">
+      <c r="U7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'M1','FrmMessage', 'tblMainquesM','Iqvm †ewbwdU Kgb gwWDj 6 Lv`¨ MÖnY ZvwjKv Dcv`vb welqK cÖkœcÎ','WASH Benefits Common Module 6 Food Frequency Questionnaire','','M2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
     </row>
     <row r="8" spans="1:115" s="32" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A8" s="77">
+      <c r="A8" s="75">
         <v>7</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="61" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="S8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="61" t="s">
+      <c r="T8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="63" t="str">
+      <c r="U8" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'M2','FrmMessage', 'tblMainquesM','Avwg GLb Avcbvi wkïi (bvg) Lv`¨MªnY msµvšÍ  wel‡q wKQy cÖkœ Ki‡Z PvB| cÖ_‡g Avgvi Rvbv `iKvi ‡h MZKvj Ges MZ 7 w`‡bi g‡a¨ wkïi (bvg) Lv`¨MªnY m¤ú‡K© ej‡Z cvi‡eb','Now I would like to ask you some questions about feeding [NAME].  First I need to know if you will be able to tell me about feeding [NAME] yesterday and over the last week.','','c601','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
     </row>
     <row r="9" spans="1:115" s="12" customFormat="1" ht="25.5">
-      <c r="A9" s="77">
+      <c r="A9" s="75">
         <v>8</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>25</v>
@@ -2875,8 +2857,8 @@
         <v>38</v>
       </c>
       <c r="G9" s="45"/>
-      <c r="H9" s="57" t="s">
-        <v>65</v>
+      <c r="H9" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="45"/>
@@ -2887,29 +2869,29 @@
       <c r="O9" s="47"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="46"/>
-      <c r="R9" s="61" t="s">
+      <c r="R9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="61" t="s">
+      <c r="T9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="63" t="str">
+      <c r="U9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'c601','FrmSingleChoice', 'tblMainques','601. Avcwb wK Rv‡bb wkï (bvg) MZKvj wK wK †L‡q‡Q?','601. Do you know what [NAME] consumed yesterday?','','c602','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
     </row>
     <row r="10" spans="1:115" s="12" customFormat="1" ht="39">
-      <c r="A10" s="77">
+      <c r="A10" s="75">
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>25</v>
@@ -2918,14 +2900,14 @@
         <v>27</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G10" s="45"/>
-      <c r="H10" s="57" t="s">
-        <v>66</v>
+      <c r="H10" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="45"/>
@@ -2936,29 +2918,29 @@
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="61" t="s">
+      <c r="R10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="61" t="s">
+      <c r="S10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="61" t="s">
+      <c r="T10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="63" t="str">
+      <c r="U10" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'c602','FrmSingleChoice', 'tblMainques','602. Ggb †KD wK Av‡Q †h Rv‡b  wkï wK †L‡qwQj Ges whwb Avgv‡`i cÖkœmg~‡ni DËi w`‡q mnvqZv Ki‡e?','602. Is there someone else who knows what the child ate, who can sit with us today and help answer questions?','','c603','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
     </row>
     <row r="11" spans="1:115" s="12" customFormat="1" ht="25.5">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>25</v>
@@ -2973,8 +2955,8 @@
         <v>41</v>
       </c>
       <c r="G11" s="45"/>
-      <c r="H11" s="57" t="s">
-        <v>61</v>
+      <c r="H11" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="45"/>
@@ -2985,29 +2967,29 @@
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="61" t="s">
+      <c r="R11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="61" t="s">
+      <c r="S11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="61" t="s">
+      <c r="T11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="63" t="str">
+      <c r="U11" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'c603','FrmSingleChoice', 'tblMainques','603. wkïi mv‡_ DËi`vZvi m¤ú©K|','603. Respondent relationship to the participating child.','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
     </row>
     <row r="12" spans="1:115" s="12" customFormat="1" ht="25.5">
-      <c r="A12" s="77">
+      <c r="A12" s="75">
         <v>11</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>26</v>
@@ -3016,14 +2998,14 @@
         <v>27</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="45"/>
-      <c r="H12" s="57" t="s">
-        <v>61</v>
+      <c r="H12" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="45"/>
@@ -3034,34 +3016,34 @@
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="61" t="s">
+      <c r="R12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="61" t="s">
+      <c r="S12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="61" t="s">
+      <c r="T12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="63" t="str">
+      <c r="U12" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'c603_other','FrmText', 'tblMainques','Ab¨vb¨ (wbwÏ©ó Kiyb)','Other (specify)','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-    </row>
-    <row r="13" spans="1:115" s="12" customFormat="1" ht="25.5">
-      <c r="A13" s="77">
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+    </row>
+    <row r="13" spans="1:115" s="12" customFormat="1" ht="19.5">
+      <c r="A13" s="75">
         <v>12</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="66" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="43" t="s">
@@ -3072,7 +3054,7 @@
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="45"/>
@@ -3083,29 +3065,29 @@
       <c r="O13" s="47"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="61" t="s">
+      <c r="R13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="61" t="s">
+      <c r="S13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="61" t="s">
+      <c r="T13" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="63" t="str">
+      <c r="U13" s="61" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'M11','FrmMessage', 'tblMainquesM','wkï †h Lvevi †L‡q‡Q †hgb ey‡Ki `ya, Zij Lvevi Ges Ab¨vb¨ Lvevi','Breastfeeding, Liquids, and Foods Eaten by the Child','','c605','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
     </row>
     <row r="14" spans="1:115" s="12" customFormat="1" ht="39">
-      <c r="A14" s="77">
+      <c r="A14" s="75">
         <v>13</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>25</v>
@@ -3114,14 +3096,14 @@
         <v>27</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="45"/>
-      <c r="H14" s="57" t="s">
-        <v>71</v>
+      <c r="H14" s="94" t="s">
+        <v>69</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="45"/>
@@ -3132,143 +3114,143 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="61" t="s">
+      <c r="R14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="61" t="s">
+      <c r="S14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="61" t="s">
+      <c r="T14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'c605','FrmSingleChoice', 'tblMainques','605. wkïwU wK GL‡bv ey‡Ki `ya cvb Ki‡Q, bvwK †m m¤ú~b©fv‡e evowZ Lvevi Lv‡”Q?( hw` wkï ey‡Ki `ya Lvq Zvn‡j 1 †KvW Kiæb)','605. Is the baby still breastfeeding, or is he/she completely weaned?','','c606','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-    </row>
-    <row r="15" spans="1:115" s="12" customFormat="1" ht="19.5">
-      <c r="A15" s="77">
+      <c r="U14" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'c605','FrmSingleChoice', 'tblMainques','605. wkïwU wK GL‡bv ey‡Ki `ya cvb Ki‡Q, bvwK †m m¤ú~b©fv‡e evowZ Lvevi Lv‡”Q?( hw` wkï ey‡Ki `ya Lvq Zvn‡j 1 †KvW Kiæb)','605. Is the baby still breastfeeding, or is he/she completely weaned?','','c607','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+    </row>
+    <row r="15" spans="1:115" s="45" customFormat="1" ht="19.5">
+      <c r="A15" s="75">
         <v>14</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="99" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'c607','FrmNumeric', 'tblMainques','607. GLb Avgv‡K ejyb wkïwU (bvg)  MZKvj KZevi ey‡Ki `ya cvb K‡i‡Q ?','607. Now I would like you to tell me how many times [NAME] breastfed yesterday','','c607c','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+    </row>
+    <row r="16" spans="1:115" s="12" customFormat="1" ht="25.5">
+      <c r="A16" s="75">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="61" t="s">
+      <c r="F16" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="61" t="s">
+      <c r="S16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="61" t="s">
+      <c r="T16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'c606','FrmYeartoMin', 'tblMainques','606. wkïwUi (bvg) hLb me©‡kl ey‡Ki `ya cvb K‡iwQj,ZLb Zvi eqm KZ wQj ?','606. How old was [NAME] the last time he/she was breastfed? Write 99 if Don’t know','','c607','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-    </row>
-    <row r="16" spans="1:115" s="45" customFormat="1" ht="19.5">
-      <c r="A16" s="77">
-        <v>15</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="96" t="s">
+      <c r="U16" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'c607c','FrmSingleChoice', 'tblMainques','607 M. MZ mßv‡n wK †Kvb w`b wkïi (bvg) ¶zavg›`v n‡qwQj?','607 C. In the past week, were there any days that [NAME] lost his/her appetite?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+    </row>
+    <row r="17" spans="1:24" s="12" customFormat="1" ht="25.5">
+      <c r="A17" s="75">
+        <v>16</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="101" t="s">
-        <v>391</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'c607','FrmNumeric', 'tblMainques','607. GLb Avgv‡K ejyb wkïwU (bvg)  MZKvj KZevi ey‡Ki `ya cvb K‡i‡Q ?','607. Now I would like you to tell me how many times [NAME] breastfed yesterday','','c607c','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-    </row>
-    <row r="17" spans="1:24" s="12" customFormat="1" ht="25.5">
-      <c r="A17" s="77">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>47</v>
+      <c r="E17" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>80</v>
       </c>
       <c r="G17" s="45"/>
-      <c r="H17" s="57" t="s">
-        <v>57</v>
+      <c r="H17" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="45"/>
@@ -3279,45 +3261,45 @@
       <c r="O17" s="47"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="46"/>
-      <c r="R17" s="61" t="s">
+      <c r="R17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="61" t="s">
+      <c r="S17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="61" t="s">
+      <c r="T17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'c607c','FrmSingleChoice', 'tblMainques','607 M. MZ mßv‡n wK †Kvb w`b wkïi (bvg) ¶zavg›`v n‡qwQj?','607 C. In the past week, were there any days that [NAME] lost his/her appetite?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-    </row>
-    <row r="18" spans="1:24" s="12" customFormat="1" ht="25.5">
-      <c r="A18" s="77">
+      <c r="U17" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'c607c_days','FrmNumeric', 'tblMainques','KZ w`b?','How many days?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+    </row>
+    <row r="18" spans="1:24" s="12" customFormat="1" ht="97.5">
+      <c r="A18" s="75">
         <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="G18" s="45"/>
-      <c r="H18" s="57" t="s">
-        <v>57</v>
+      <c r="H18" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="45"/>
@@ -3328,45 +3310,45 @@
       <c r="O18" s="47"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="46"/>
-      <c r="R18" s="61" t="s">
+      <c r="R18" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="61" t="s">
+      <c r="S18" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="61" t="s">
+      <c r="T18" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'c607c_days','FrmNumeric', 'tblMainques','KZ w`b?','How many days?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-    </row>
-    <row r="19" spans="1:24" s="12" customFormat="1" ht="97.5">
-      <c r="A19" s="77">
+      <c r="U18" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'M3','FrmMessage', 'tblMainquesM','GLb MZKvj mvivw`b Avi mviviv‡Z (†kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK Zij Lvevi †L‡q‡Q Avwg †m m¤ú‡K© wKQz Rvb‡Z PvB‡ev| &lt;i&gt;Avcbvi wkï ‡h Zij Lvevi †L‡q‡Q &amp; Avwg †m m¤ú‡K© Rvb‡Z PvB, Zv Ab¨ †h †Kvb Lvev‡ii mv‡_ wgwk‡q †nvK bv †Kb | &lt;/i&gt; &lt;br&gt; &lt;br&gt; ZvwjKv †_‡K cÖkœ¸‡jv co–b Ges mwVK N‡i wUK wPý w`b','Now I would like to ask you about liquids that [NAME] may have had yesterday during the day or at night (last 24hours, starting from the time interview). &lt;i&gt; I am interested in whether your child had the item even if it was combined with other foods.&lt;/i&gt; &lt;br&gt; &lt;br&gt; For each item on the list, read the question below and tick the appropriate box.','','c608','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+    </row>
+    <row r="19" spans="1:24" s="12" customFormat="1" ht="38.25">
+      <c r="A19" s="75">
         <v>18</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="45"/>
-      <c r="H19" s="57" t="s">
-        <v>76</v>
+      <c r="H19" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="45"/>
@@ -3377,45 +3359,45 @@
       <c r="O19" s="47"/>
       <c r="P19" s="48"/>
       <c r="Q19" s="46"/>
-      <c r="R19" s="61" t="s">
+      <c r="R19" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="61" t="s">
+      <c r="S19" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="61" t="s">
+      <c r="T19" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'M3','FrmMessage', 'tblMainquesM','GLb MZKvj mvivw`b Avi mviviv‡Z (†kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK Zij Lvevi †L‡q‡Q Avwg †m m¤ú‡K© wKQz Rvb‡Z PvB‡ev| &lt;i&gt;Avcbvi wkï ‡h Zij Lvevi †L‡q‡Q &amp; Avwg †m m¤ú‡K© Rvb‡Z PvB, Zv Ab¨ †h †Kvb Lvev‡ii mv‡_ wgwk‡q †nvK bv †Kb | &lt;/i&gt; &lt;br&gt; &lt;br&gt; ZvwjKv †_‡K cÖkœ¸‡jv co–b Ges mwVK N‡i wUK wPý w`b','Now I would like to ask you about liquids that [NAME] may have had yesterday during the day or at night (last 24hours, starting from the time interview). &lt;i&gt; I am interested in whether your child had the item even if it was combined with other foods.&lt;/i&gt; &lt;br&gt; &lt;br&gt; For each item on the list, read the question below and tick the appropriate box.','','c608','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-    </row>
-    <row r="20" spans="1:24" s="12" customFormat="1" ht="39">
-      <c r="A20" s="77">
+      <c r="U19" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'c608','FrmMultipleCheckComboTwo', 'tblMainques','608. ‡Kvb cvbxq cvb K‡i‡Q wKbv? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb)','608. Did [NAME] drink/have any [ITEM FROM LIST]?   Read question 14  times, once for each item','','M5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+    </row>
+    <row r="20" spans="1:24" s="12" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A20" s="75">
         <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>49</v>
+        <v>101</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="57" t="s">
-        <v>58</v>
+      <c r="H20" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="45"/>
@@ -3426,45 +3408,45 @@
       <c r="O20" s="47"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="46"/>
-      <c r="R20" s="61" t="s">
+      <c r="R20" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="61" t="s">
+      <c r="S20" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="61" t="s">
+      <c r="T20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'c608','FrmMultipleCheckComboTwo', 'tblMainques','608. ‡Kvb cvbxq cvb K‡i‡Q wKbv? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb)','608. Did [NAME] drink/have any [ITEM FROM LIST]?   Read question 14  times, once for each item','','M5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-    </row>
-    <row r="21" spans="1:24" s="12" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A21" s="77">
+      <c r="U20" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'M5','FrmMessage', 'tblMainques','Gici MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Avwg †m m¤ú‡K© wKQzcÖkœ wRÁvmv Ki‡ev| Avcbvi wkï hv wKQz †L‡q‡Q  Avwg †m m¤ú‡K© me wKQzB Rvb‡Z PvB, Zv evmvq ev Ab¨ †h †Kvb RvqMvq †nvK bv †Kb|&lt;br&gt; &lt;br&gt;1. wb‡`©kbvi Rb¨ Avjv`vc„ôv e¨envi Kiæb,hv gv ‡K g‡b Ki‡Z mvnvh¨ Ki‡e &lt;br&gt; &lt;br&gt;2. wb‡Pi Lvev‡ii ZvwjKvwU c‡o ‡kvbv‡eb bv| gv‡K ej‡Z w`b wkïwU wK ‡L‡qwQj|&lt;br&gt; &lt;br&gt;3. wkïwU hv ‡L‡qwQj, cÖwZwU Lvevi (A_ev Dcv`vb) G ‡MvjwPý w`b Ges n¨uv †Z wUKwPý w`b &lt;br&gt; &lt;br&gt;4. gv hLb †Kvb Lvev‡ii K_v e‡j hv‡Z A‡bK¸‡jv Dcv`vb e¨envi Kiv n‡q‡Q †hgb wLPywo, mywR A_ev byWzjm ZLb cÖwZwU Dcv`v‡bi K_v wRÁvmv Kiæb| gmjvi K_v wR‡Ám Ki‡Z fzj‡eb bv| &lt;br&gt; &lt;br&gt;5. hw` Lvev‡i gvQ A_ev gvsm ‡_‡K _v‡K, Zvn‡j wR‡Ám Kiæb wkï wK gvQ ev gvsm ‡L‡q‡Q bvwK ïay ‡Svj †L‡q‡Q| hw` ïay †Svj †L‡q _v‡K Zvn‡j gvQ ev gvsm wUK wPý w`‡eb bv|','Next I would like to ask you some questions about the foods that [NAME] ate yesterday during the day or at night (last 24hours, starting from the time interview). I would like to know everything that [NAME] ate, whether at home or someplace else. &lt;br&gt; &lt;br&gt;1. Use the separate page of instructions to help the mother remember. &lt;br&gt; &lt;br&gt;2. Do not read the list of foods below. Let the mother tell you what the child ate.&lt;br&gt; &lt;br&gt;3.Circle each food (or ingredient) that the child ate, and tick 1 Yes for that food group.&lt;br&gt; &lt;br&gt;4. When the mother mentions a dish with many ingredients such as kichuri, suji, or noodles, ask for all ingredients.Dont forget about spices.&lt;br&gt; &lt;br&gt;5. If the dish had fish or meat, ask if the child got the fish/meat or only the broth. If child ate only the broth, do not circle fish or meat','','c609','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+    </row>
+    <row r="21" spans="1:24" s="12" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A21" s="75">
         <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="G21" s="45"/>
-      <c r="H21" s="57" t="s">
-        <v>77</v>
+      <c r="H21" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="45"/>
@@ -3475,45 +3457,45 @@
       <c r="O21" s="47"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="46"/>
-      <c r="R21" s="61" t="s">
+      <c r="R21" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="61" t="s">
+      <c r="S21" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="61" t="s">
+      <c r="T21" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'M5','FrmMessage', 'tblMainques','Gici MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Avwg †m m¤ú‡K© wKQzcÖkœ wRÁvmv Ki‡ev| Avcbvi wkï hv wKQz †L‡q‡Q  Avwg †m m¤ú‡K© me wKQzB Rvb‡Z PvB, Zv evmvq ev Ab¨ †h †Kvb RvqMvq †nvK bv †Kb|&lt;br&gt; &lt;br&gt;1. wb‡`©kbvi Rb¨ Avjv`vc„ôv e¨envi Kiæb,hv gv ‡K g‡b Ki‡Z mvnvh¨ Ki‡e &lt;br&gt; &lt;br&gt;2. wb‡Pi Lvev‡ii ZvwjKvwU c‡o ‡kvbv‡eb bv| gv‡K ej‡Z w`b wkïwU wK ‡L‡qwQj|&lt;br&gt; &lt;br&gt;3. wkïwU hv ‡L‡qwQj, cÖwZwU Lvevi (A_ev Dcv`vb) G ‡MvjwPý w`b Ges n¨uv †Z wUKwPý w`b &lt;br&gt; &lt;br&gt;4. gv hLb †Kvb Lvev‡ii K_v e‡j hv‡Z A‡bK¸‡jv Dcv`vb e¨envi Kiv n‡q‡Q †hgb wLPywo, mywR A_ev byWzjm ZLb cÖwZwU Dcv`v‡bi K_v wRÁvmv Kiæb| gmjvi K_v wR‡Ám Ki‡Z fzj‡eb bv| &lt;br&gt; &lt;br&gt;5. hw` Lvev‡i gvQ A_ev gvsm ‡_‡K _v‡K, Zvn‡j wR‡Ám Kiæb wkï wK gvQ ev gvsm ‡L‡q‡Q bvwK ïay ‡Svj †L‡q‡Q| hw` ïay †Svj †L‡q _v‡K Zvn‡j gvQ ev gvsm wUK wPý w`‡eb bv|','Next I would like to ask you some questions about the foods that [NAME] ate yesterday during the day or at night (last 24hours, starting from the time interview). I would like to know everything that [NAME] ate, whether at home or someplace else. &lt;br&gt; &lt;br&gt;1. Use the separate page of instructions to help the mother remember. &lt;br&gt; &lt;br&gt;2. Do not read the list of foods below. Let the mother tell you what the child ate.&lt;br&gt; &lt;br&gt;3.Circle each food (or ingredient) that the child ate, and tick 1 Yes for that food group.&lt;br&gt; &lt;br&gt;4. When the mother mentions a dish with many ingredients such as kichuri, suji, or noodles, ask for all ingredients.Dont forget about spices.&lt;br&gt; &lt;br&gt;5. If the dish had fish or meat, ask if the child got the fish/meat or only the broth. If child ate only the broth, do not circle fish or meat','','c609','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-    </row>
-    <row r="22" spans="1:24" s="12" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A22" s="77">
+      <c r="U21" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'c609','FrmMultiple', 'tblMainques','609. wkï MZKvj ‡h Lvevi/Lv`¨ ˆZixi Dcv`vb †L‡q‡Q(†Svj A_ev wm× hv B †nvK bv †Kb)|','609. Foods/ingredients in recipes (may be in a sauce or porridge) eaten by the child yesterday.','','c610','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+    </row>
+    <row r="22" spans="1:24" s="12" customFormat="1" ht="76.5">
+      <c r="A22" s="75">
         <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>50</v>
+        <v>87</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="G22" s="45"/>
-      <c r="H22" s="57" t="s">
-        <v>78</v>
+      <c r="H22" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="45"/>
@@ -3521,48 +3503,48 @@
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
-      <c r="R22" s="61" t="s">
+      <c r="R22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="61" t="s">
+      <c r="S22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="61" t="s">
+      <c r="T22" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'c609','FrmMultiple', 'tblMainques','609. wkï MZKvj ‡h Lvevi/Lv`¨ ˆZixi Dcv`vb †L‡q‡Q(†Svj A_ev wm× hv B †nvK bv †Kb)|','609. Foods/ingredients in recipes (may be in a sauce or porridge) eaten by the child yesterday.','','c610','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-    </row>
-    <row r="23" spans="1:24" s="12" customFormat="1" ht="76.5">
-      <c r="A23" s="77">
+      <c r="U22" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'c610','FrmSingleChoice', 'tblMainques','610. Avcwb MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Zv ej‡jb [wcQ‡bi c„ôvi †Mvj Kiv Lvev‡i bvg ¸‡jv co–b] GQvov Avcbvi wkï [bvg] bv¯Ívmn Avi wK wKQz †L‡q‡Q?','610. You mentioned that [NAME] ate [read back circled foods on previous page] yesterday during the day or at night (last 24hours, starting from the time interview). Did [NAME] have any other food at all, including snacks?','','M6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+    </row>
+    <row r="23" spans="1:24" s="12" customFormat="1" ht="63.75">
+      <c r="A23" s="75">
         <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="G23" s="45"/>
-      <c r="H23" s="57" t="s">
-        <v>59</v>
+      <c r="H23" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="45"/>
@@ -3570,48 +3552,48 @@
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
       <c r="Q23" s="46"/>
-      <c r="R23" s="61" t="s">
+      <c r="R23" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="61" t="s">
+      <c r="S23" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="61" t="s">
+      <c r="T23" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'c610','FrmSingleChoice', 'tblMainques','610. Avcwb MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Zv ej‡jb [wcQ‡bi c„ôvi †Mvj Kiv Lvev‡i bvg ¸‡jv co–b] GQvov Avcbvi wkï [bvg] bv¯Ívmn Avi wK wKQz †L‡q‡Q?','610. You mentioned that [NAME] ate [read back circled foods on previous page] yesterday during the day or at night (last 24hours, starting from the time interview). Did [NAME] have any other food at all, including snacks?','','M6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-    </row>
-    <row r="24" spans="1:24" s="12" customFormat="1" ht="63.75">
-      <c r="A24" s="77">
+      <c r="U23" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'M6','FrmMessage', 'tblMainQuesM','hw` n¨v nq, Zvn‡j c~‡e©i c„ôvi cÖkœ ¸‡jv Avevi Kiyb Ges wUK wPý w`b | g‡b Kiv †kl n‡j, hw` †mB `‡ji †Kvb Lvevi ev Lv`¨ Dcv`v‡b wUK †`qv bv nq Zvn‡j  bv †Z wUK wPý w`b|','If “yes”, use the same probing questions and tick on the list on previous page. At the end of the recall tick “[√]  2  No” if no food or ingredient is circled for that group.','','c610a','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+    </row>
+    <row r="24" spans="1:24" s="12" customFormat="1" ht="78">
+      <c r="A24" s="75">
         <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>107</v>
+        <v>89</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="G24" s="45"/>
-      <c r="H24" s="57" t="s">
-        <v>82</v>
+      <c r="H24" s="88" t="s">
+        <v>363</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="45"/>
@@ -3622,45 +3604,45 @@
       <c r="O24" s="47"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="46"/>
-      <c r="R24" s="61" t="s">
+      <c r="R24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="61" t="s">
+      <c r="S24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="61" t="s">
+      <c r="T24" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'M6','FrmMessage', 'tblMainQuesM','hw` n¨v nq, Zvn‡j c~‡e©i c„ôvi cÖkœ ¸‡jv Avevi Kiyb Ges wUK wPý w`b | g‡b Kiv †kl n‡j, hw` †mB `‡ji †Kvb Lvevi ev Lv`¨ Dcv`v‡b wUK †`qv bv nq Zvn‡j  bv †Z wUK wPý w`b|','If “yes”, use the same probing questions and tick on the list on previous page. At the end of the recall tick “[√]  2  No” if no food or ingredient is circled for that group.','','c610a','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-    </row>
-    <row r="25" spans="1:24" s="12" customFormat="1" ht="78">
-      <c r="A25" s="77">
+      <c r="U24" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'c610a','FrmNumeric', 'tblMainques','610 K. MZKvj mvivw`b Avi mviviv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] KZevi k³, Avav k³ Av_ev big Lvevi †L‡q‡Q Zij Lvevi ev‡`? †bvU : mKj ai‡bi `ya ev cvwb w`‡q dzUv‡bv km¨ RvZxq Lvevi','610 A. How many times did [NAME] eat solid, semi-solid, or soft foods other than liquids yesterday during the day or night (last 24hours, starting from the time interview)?  Note: include all forms of porridge, including thin porridge.','','M8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+    </row>
+    <row r="25" spans="1:24" s="12" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A25" s="75">
         <v>24</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>52</v>
+      <c r="B25" s="88" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>372</v>
       </c>
       <c r="G25" s="45"/>
-      <c r="H25" s="90" t="s">
-        <v>367</v>
+      <c r="H25" s="93" t="s">
+        <v>78</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="45"/>
@@ -3671,45 +3653,45 @@
       <c r="O25" s="47"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="46"/>
-      <c r="R25" s="61" t="s">
+      <c r="R25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="61" t="s">
+      <c r="S25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="61" t="s">
+      <c r="T25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'c610a','FrmNumeric', 'tblMainques','610 K. MZKvj mvivw`b Avi mviviv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] KZevi k³, Avav k³ Av_ev big Lvevi †L‡q‡Q Zij Lvevi ev‡`? †bvU : mKj ai‡bi `ya ev cvwb w`‡q dzUv‡bv km¨ RvZxq Lvevi','610 A. How many times did [NAME] eat solid, semi-solid, or soft foods other than liquids yesterday during the day or night (last 24hours, starting from the time interview)?  Note: include all forms of porridge, including thin porridge.','','M8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-    </row>
-    <row r="26" spans="1:24" s="12" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A26" s="77">
+      <c r="U25" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'M8','FrmMessage', 'tblMainQuesM','GLb Avwg Avcbvi Kv‡Q wfUvwgb/wgbv‡ij Gi ewo A_ev Wªcm m¤ú©‡K Rvb‡Z PvB‡ev|','Now I would like to ask you about vitamin/mineral pills or drops.','','c613','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+    </row>
+    <row r="26" spans="1:24" s="12" customFormat="1" ht="39">
+      <c r="A26" s="75">
         <v>25</v>
       </c>
-      <c r="B26" s="90" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="91" t="s">
-        <v>368</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>376</v>
+      <c r="B26" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>365</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>373</v>
       </c>
       <c r="G26" s="45"/>
-      <c r="H26" s="95" t="s">
-        <v>81</v>
+      <c r="H26" s="93" t="s">
+        <v>77</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="45"/>
@@ -3720,45 +3702,45 @@
       <c r="O26" s="47"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="46"/>
-      <c r="R26" s="61" t="s">
+      <c r="R26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="61" t="s">
+      <c r="S26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="61" t="s">
+      <c r="T26" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'M8','FrmMessage', 'tblMainQuesM','GLb Avwg Avcbvi Kv‡Q wfUvwgb/wgbv‡ij Gi ewo A_ev Wªcm m¤ú©‡K Rvb‡Z PvB‡ev|','Now I would like to ask you about vitamin/mineral pills or drops.','','c613','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-    </row>
-    <row r="27" spans="1:24" s="12" customFormat="1" ht="39">
-      <c r="A27" s="77">
+      <c r="U26" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'c613','FrmSingleChoice', 'tblMainques','613. MZ mvZ w`‡b  Kqw`b Avcbvi wkï [bvg] wfUvwgb/wgbv‡ij Gi ewo A_ev Wªcm wb‡q‡Q?','613. On how many days did [NAME] have any vitamin/mineral pills or drops in the last 7 days?','','c614','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+    </row>
+    <row r="27" spans="1:24" s="12" customFormat="1" ht="25.5">
+      <c r="A27" s="75">
         <v>26</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="88" t="s">
+      <c r="B27" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="91" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>377</v>
+      <c r="E27" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="F27" s="91" t="s">
+        <v>80</v>
       </c>
       <c r="G27" s="45"/>
-      <c r="H27" s="95" t="s">
-        <v>80</v>
+      <c r="H27" s="93" t="s">
+        <v>367</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="45"/>
@@ -3769,45 +3751,45 @@
       <c r="O27" s="47"/>
       <c r="P27" s="48"/>
       <c r="Q27" s="46"/>
-      <c r="R27" s="61" t="s">
+      <c r="R27" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="61" t="s">
+      <c r="S27" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="61" t="s">
+      <c r="T27" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'c613','FrmSingleChoice', 'tblMainques','613. MZ mvZ w`‡b  Kqw`b Avcbvi wkï [bvg] wfUvwgb/wgbv‡ij Gi ewo A_ev Wªcm wb‡q‡Q?','613. On how many days did [NAME] have any vitamin/mineral pills or drops in the last 7 days?','','c614','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-    </row>
-    <row r="28" spans="1:24" s="12" customFormat="1" ht="25.5">
-      <c r="A28" s="77">
+      <c r="U27" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'c613_days','FrmNumeric', 'tblMainques','KZw`b','How many days?','','c614_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+    </row>
+    <row r="28" spans="1:24" s="12" customFormat="1" ht="57" customHeight="1">
+      <c r="A28" s="75">
         <v>27</v>
       </c>
-      <c r="B28" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="88" t="s">
+      <c r="B28" s="86" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="86" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>83</v>
+        <v>368</v>
+      </c>
+      <c r="F28" s="86" t="s">
+        <v>374</v>
       </c>
       <c r="G28" s="45"/>
-      <c r="H28" s="95" t="s">
-        <v>371</v>
+      <c r="H28" s="93" t="s">
+        <v>77</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="45"/>
@@ -3818,93 +3800,90 @@
       <c r="O28" s="47"/>
       <c r="P28" s="48"/>
       <c r="Q28" s="46"/>
-      <c r="R28" s="61" t="s">
+      <c r="R28" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="61" t="s">
+      <c r="S28" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="61" t="s">
+      <c r="T28" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'c613_days','FrmNumeric', 'tblMainques','KZw`b','How many days?','','c614_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-    </row>
-    <row r="29" spans="1:24" s="12" customFormat="1" ht="57" customHeight="1">
-      <c r="A29" s="77">
+      <c r="U28" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'c614_1','FrmText', 'tblMainques','614. hw` wkï wfUvwgb/wgbv‡ij Gi ewo A_ev Wªcm wb‡q _v‡K : wK ai‡bi? DËi `vZv‡K †gvoK †`Lv‡Z ejyb Ges Dc‡ii jvB‡b bvg wjLyb|','614. If baby was given vitamin / mineral drops or pills:   What type? Ask the respondent to show the package and write the name on the line above.','','c614','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+    </row>
+    <row r="29" spans="1:24" s="12" customFormat="1" ht="38.25">
+      <c r="A29" s="75">
         <v>28</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" s="86" t="s">
+        <v>375</v>
+      </c>
+      <c r="H29" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'c614','FrmSingleChoice', 'tblMainques','614 K. ch©‡e¶Y:ewo A_ev Wªcm Gi bv‡gi , Z‡_¨i  Drm wK?','614.A Observation: What is the source of the information on the pill or drop name?','','c615','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+    </row>
+    <row r="30" spans="1:24" s="12" customFormat="1" ht="57" customHeight="1">
+      <c r="A30" s="75">
+        <v>29</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>372</v>
-      </c>
-      <c r="F29" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U29" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'c614_1','FrmText', 'tblMainques','614. hw` wkï wfUvwgb/wgbv‡ij Gi ewo A_ev Wªcm wb‡q _v‡K : wK ai‡bi? DËi `vZv‡K †gvoK †`Lv‡Z ejyb Ges Dc‡ii jvB‡b bvg wjLyb|','614. If baby was given vitamin / mineral drops or pills:   What type? Ask the respondent to show the package and write the name on the line above.','','c614','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-    </row>
-    <row r="30" spans="1:24" s="12" customFormat="1" ht="38.25">
-      <c r="A30" s="77">
-        <v>29</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>373</v>
-      </c>
-      <c r="F30" s="88" t="s">
-        <v>379</v>
-      </c>
-      <c r="H30" s="95" t="s">
-        <v>79</v>
+      <c r="F30" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>377</v>
       </c>
       <c r="I30" s="10"/>
       <c r="L30" s="13"/>
@@ -3913,44 +3892,44 @@
       <c r="O30" s="14"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="13"/>
-      <c r="R30" s="61" t="s">
+      <c r="R30" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="61" t="s">
+      <c r="S30" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="61" t="s">
+      <c r="T30" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'c614','FrmSingleChoice', 'tblMainques','614 K. ch©‡e¶Y:ewo A_ev Wªcm Gi bv‡gi , Z‡_¨i  Drm wK?','614.A Observation: What is the source of the information on the pill or drop name?','','c615','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
+      <c r="U30" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'c615','FrmMultipleCheckCombo', 'tblMainques','615. wkï wK KL‡bv gqjv ev gvwU wL‡q‡Q? g‡b Kivi Rb¨ úªwZwU mgq Avjv`v fv‡e Rvb‡Z Pvb|','615. Has the child eaten any dirt or soil? Ask for each recall period.','','c616','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
     </row>
     <row r="31" spans="1:24" s="12" customFormat="1" ht="57" customHeight="1">
-      <c r="A31" s="77">
+      <c r="A31" s="75">
         <v>30</v>
       </c>
-      <c r="B31" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="D31" s="88" t="s">
+      <c r="B31" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="F31" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="H31" s="88" t="s">
-        <v>381</v>
+      <c r="E31" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="I31" s="10"/>
       <c r="L31" s="13"/>
@@ -3959,45 +3938,31 @@
       <c r="O31" s="14"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="61" t="s">
+      <c r="R31" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="61" t="s">
+      <c r="S31" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="61" t="s">
+      <c r="T31" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'c615','FrmMultipleCheckCombo', 'tblMainques','615. wkï wK KL‡bv gqjv ev gvwU wL‡q‡Q? g‡b Kivi Rb¨ úªwZwU mgq Avjv`v fv‡e Rvb‡Z Pvb|','615. Has the child eaten any dirt or soil? Ask for each recall period.','','c616','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
+      <c r="U31" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'c616','FrmMultipleCheckCombo', 'tblMainques','616. wkïwU wK "‡mvbvgwb" †L‡q‡Q? g‡b Kivi Rb¨ úªwZwU mgq Avjv`v fv‡e Rvb‡Z Pvb|','616.Has the child consumed “Shonamoni”? Ask for each recall period:','','END','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
     </row>
     <row r="32" spans="1:24" s="12" customFormat="1" ht="57" customHeight="1">
-      <c r="A32" s="77">
-        <v>31</v>
-      </c>
-      <c r="B32" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>22</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="23"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -4005,30 +3970,15 @@
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'c616','FrmMultipleCheckCombo', 'tblMainques','616. wkïwU wK "‡mvbvgwb" †L‡q‡Q? g‡b Kivi Rb¨ úªwZwU mgq Avjv`v fv‡e Rvb‡Z Pvb|','616.Has the child consumed “Shonamoni”? Ask for each recall period:','','END','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="L33" s="13"/>
@@ -4042,10 +3992,10 @@
     <row r="34" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="L34" s="13"/>
@@ -4073,7 +4023,7 @@
       <c r="Q35" s="13"/>
       <c r="U35" s="16"/>
     </row>
-    <row r="36" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
+    <row r="36" spans="1:21" s="12" customFormat="1" ht="19.5">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4124,7 +4074,7 @@
       <c r="Q38" s="13"/>
       <c r="U38" s="16"/>
     </row>
-    <row r="39" spans="1:21" s="12" customFormat="1" ht="19.5">
+    <row r="39" spans="1:21" s="12" customFormat="1" ht="106.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4141,7 +4091,7 @@
       <c r="Q39" s="13"/>
       <c r="U39" s="16"/>
     </row>
-    <row r="40" spans="1:21" s="12" customFormat="1" ht="106.5" customHeight="1">
+    <row r="40" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4181,7 +4131,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="L42" s="13"/>
@@ -4198,7 +4148,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="19"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="L43" s="13"/>
@@ -4209,12 +4159,12 @@
       <c r="Q43" s="13"/>
       <c r="U43" s="16"/>
     </row>
-    <row r="44" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
+    <row r="44" spans="1:21" s="12" customFormat="1" ht="19.5">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="19"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -4226,7 +4176,7 @@
       <c r="Q44" s="13"/>
       <c r="U44" s="16"/>
     </row>
-    <row r="45" spans="1:21" s="12" customFormat="1" ht="19.5">
+    <row r="45" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4234,7 +4184,7 @@
       <c r="E45" s="18"/>
       <c r="F45" s="19"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="I45" s="26"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -4243,30 +4193,35 @@
       <c r="Q45" s="13"/>
       <c r="U45" s="16"/>
     </row>
-    <row r="46" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
+    <row r="46" spans="1:21" s="16" customFormat="1" ht="63.75" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="19"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="26"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="15"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
-      <c r="U46" s="16"/>
-    </row>
-    <row r="47" spans="1:21" s="16" customFormat="1" ht="63.75" customHeight="1">
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+    </row>
+    <row r="47" spans="1:21" s="16" customFormat="1" ht="19.5">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="27"/>
       <c r="H47" s="10"/>
       <c r="I47" s="28"/>
@@ -4288,7 +4243,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="27"/>
       <c r="H48" s="10"/>
       <c r="I48" s="28"/>
@@ -4310,9 +4265,9 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="19"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="27"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
@@ -4332,7 +4287,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="29"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="27"/>
       <c r="H50" s="20"/>
       <c r="I50" s="28"/>
@@ -4351,7 +4306,7 @@
     <row r="51" spans="1:20" s="16" customFormat="1" ht="19.5">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="10"/>
       <c r="E51" s="17"/>
       <c r="F51" s="10"/>
@@ -4375,7 +4330,7 @@
       <c r="B52" s="10"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="10"/>
       <c r="G52" s="27"/>
       <c r="H52" s="20"/>
@@ -4394,10 +4349,10 @@
     </row>
     <row r="53" spans="1:20" s="16" customFormat="1" ht="19.5">
       <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="10"/>
       <c r="G53" s="27"/>
       <c r="H53" s="20"/>
@@ -4414,12 +4369,12 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
     </row>
-    <row r="54" spans="1:20" s="16" customFormat="1" ht="19.5">
+    <row r="54" spans="1:20" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="10"/>
       <c r="G54" s="27"/>
       <c r="H54" s="20"/>
@@ -4441,7 +4396,7 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="18"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="10"/>
       <c r="G55" s="27"/>
       <c r="H55" s="20"/>
@@ -4463,10 +4418,10 @@
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="20"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -4482,13 +4437,12 @@
     </row>
     <row r="57" spans="1:20" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A57" s="10"/>
-      <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="10"/>
       <c r="E57" s="18"/>
       <c r="F57" s="20"/>
       <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -4504,12 +4458,13 @@
     </row>
     <row r="58" spans="1:20" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A58" s="10"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="10"/>
       <c r="E58" s="18"/>
       <c r="F58" s="20"/>
       <c r="G58" s="27"/>
-      <c r="H58" s="20"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -4523,13 +4478,13 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
     </row>
-    <row r="59" spans="1:20" s="16" customFormat="1" ht="29.25" customHeight="1">
+    <row r="59" spans="1:20" s="16" customFormat="1" ht="19.5">
       <c r="A59" s="10"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="20"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -4545,55 +4500,33 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
     </row>
-    <row r="60" spans="1:20" s="16" customFormat="1" ht="19.5">
-      <c r="A60" s="10"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
+    <row r="60" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A60" s="33">
+        <v>55</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="29.25" customHeight="1">
       <c r="A61" s="33">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="29.25" customHeight="1">
       <c r="A62" s="33">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="29.25" customHeight="1">
       <c r="A63" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="29.25" customHeight="1">
       <c r="A64" s="33">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="29.25" customHeight="1">
-      <c r="A65" s="33">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T65">
+  <autoFilter ref="A1:T64">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -4620,7 +4553,7 @@
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" style="34" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="81" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4628,34 +4561,34 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>364</v>
+      <c r="B2" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>360</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -4670,11 +4603,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>365</v>
+      <c r="B3" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>361</v>
       </c>
       <c r="D3"/>
       <c r="E3">
@@ -4689,11 +4622,11 @@
       <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>362</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>366</v>
       </c>
       <c r="D4"/>
       <c r="E4">
@@ -4709,12 +4642,12 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="81">
+        <v>111</v>
+      </c>
+      <c r="D5" s="79">
         <v>0</v>
       </c>
       <c r="E5">
@@ -4730,12 +4663,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="81">
+        <v>112</v>
+      </c>
+      <c r="D6" s="79">
         <v>1</v>
       </c>
       <c r="E6">
@@ -4751,12 +4684,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="81">
+        <v>113</v>
+      </c>
+      <c r="D7" s="79">
         <v>2</v>
       </c>
       <c r="E7">
@@ -4772,12 +4705,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="81">
+        <v>114</v>
+      </c>
+      <c r="D8" s="79">
         <v>3</v>
       </c>
       <c r="E8">
@@ -4793,12 +4726,12 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="81">
+        <v>115</v>
+      </c>
+      <c r="D9" s="79">
         <v>4</v>
       </c>
       <c r="E9">
@@ -4814,12 +4747,12 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="81">
+        <v>116</v>
+      </c>
+      <c r="D10" s="79">
         <v>5</v>
       </c>
       <c r="E10">
@@ -4835,12 +4768,12 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="81">
+        <v>117</v>
+      </c>
+      <c r="D11" s="79">
         <v>6</v>
       </c>
       <c r="E11">
@@ -4856,12 +4789,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="81">
+        <v>118</v>
+      </c>
+      <c r="D12" s="79">
         <v>7</v>
       </c>
       <c r="E12">
@@ -4877,12 +4810,12 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="81">
+        <v>119</v>
+      </c>
+      <c r="D13" s="79">
         <v>8</v>
       </c>
       <c r="E13">
@@ -4898,12 +4831,12 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="81">
+        <v>120</v>
+      </c>
+      <c r="D14" s="79">
         <v>9</v>
       </c>
       <c r="E14">
@@ -4919,12 +4852,12 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="81">
+        <v>121</v>
+      </c>
+      <c r="D15" s="79">
         <v>10</v>
       </c>
       <c r="E15">
@@ -4940,12 +4873,12 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="81">
+        <v>122</v>
+      </c>
+      <c r="D16" s="79">
         <v>11</v>
       </c>
       <c r="E16">
@@ -4961,12 +4894,12 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="81">
+        <v>123</v>
+      </c>
+      <c r="D17" s="79">
         <v>12</v>
       </c>
       <c r="E17">
@@ -4982,12 +4915,12 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="81">
+        <v>124</v>
+      </c>
+      <c r="D18" s="79">
         <v>13</v>
       </c>
       <c r="E18">
@@ -5003,12 +4936,12 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="81">
+        <v>125</v>
+      </c>
+      <c r="D19" s="79">
         <v>14</v>
       </c>
       <c r="E19">
@@ -5024,12 +4957,12 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="81">
+        <v>126</v>
+      </c>
+      <c r="D20" s="79">
         <v>15</v>
       </c>
       <c r="E20">
@@ -5045,12 +4978,12 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="81">
+        <v>127</v>
+      </c>
+      <c r="D21" s="79">
         <v>16</v>
       </c>
       <c r="E21">
@@ -5066,12 +4999,12 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="81">
+        <v>128</v>
+      </c>
+      <c r="D22" s="79">
         <v>17</v>
       </c>
       <c r="E22">
@@ -5087,13 +5020,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>130</v>
       </c>
       <c r="E23">
         <v>88</v>
@@ -5108,13 +5041,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>132</v>
       </c>
       <c r="E24">
         <v>99</v>
@@ -5129,19 +5062,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5153,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5174,13 +5107,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5195,13 +5128,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -5219,13 +5152,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>138</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5240,13 +5173,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="81" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>140</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -5261,13 +5194,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="81" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>142</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -5282,13 +5215,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>144</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -5303,19 +5236,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="81" t="s">
-        <v>53</v>
+      <c r="D33" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="E33">
         <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5327,13 +5260,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5348,13 +5281,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="81" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>148</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5369,13 +5302,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>150</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -5390,13 +5323,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>152</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -5411,19 +5344,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>154</v>
       </c>
       <c r="E38">
         <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H38" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5435,13 +5368,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="E39">
         <v>99</v>
@@ -5456,13 +5389,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5477,13 +5410,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -5498,19 +5431,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>158</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H42" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5522,13 +5455,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>160</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5543,13 +5476,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>162</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5564,13 +5497,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>164</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -5585,13 +5518,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>166</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -5606,13 +5539,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>168</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -5627,19 +5560,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="81" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>170</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H48" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5651,13 +5584,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>353</v>
+        <v>171</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>349</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -5672,19 +5605,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="E50">
         <v>77</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H50" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5696,19 +5629,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H51" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5720,19 +5653,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H52" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5744,19 +5677,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="E53">
         <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H53" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5768,13 +5701,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>354</v>
+        <v>174</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>350</v>
       </c>
       <c r="E54">
         <v>12</v>
@@ -5789,13 +5722,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>177</v>
       </c>
       <c r="E55">
         <v>11</v>
@@ -5810,13 +5743,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>180</v>
       </c>
       <c r="E56">
         <v>10</v>
@@ -5831,13 +5764,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>183</v>
       </c>
       <c r="E57">
         <v>9</v>
@@ -5852,13 +5785,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>186</v>
       </c>
       <c r="E58">
         <v>8</v>
@@ -5873,13 +5806,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>189</v>
       </c>
       <c r="E59">
         <v>7</v>
@@ -5894,13 +5827,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>192</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -5915,13 +5848,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" s="81" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>195</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -5936,13 +5869,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>198</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -5957,13 +5890,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>201</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -5978,13 +5911,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D64" s="81" t="s">
-        <v>168</v>
+        <v>203</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>164</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -5999,13 +5932,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" s="81" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>206</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6020,13 +5953,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6041,13 +5974,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -6062,13 +5995,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="81" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="E68">
         <v>99</v>
@@ -6083,13 +6016,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D69" s="81" t="s">
-        <v>355</v>
+        <v>209</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6104,13 +6037,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="81" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>212</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6125,13 +6058,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D71" s="81" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>215</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6146,13 +6079,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D72" s="81" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>218</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6167,13 +6100,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="81" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>221</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6188,13 +6121,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D74" s="81" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>224</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6209,13 +6142,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D75" s="81" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+      <c r="D75" s="79" t="s">
+        <v>227</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6230,13 +6163,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" s="81" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="D76" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6251,13 +6184,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="81" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="D77" s="79" t="s">
+        <v>233</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6272,13 +6205,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="81" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="D78" s="79" t="s">
+        <v>236</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -6293,13 +6226,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="81" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+      <c r="D79" s="79" t="s">
+        <v>239</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -6314,13 +6247,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="81" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>242</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -6335,13 +6268,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D81" s="81" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="D81" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -6356,13 +6289,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D82" s="81" t="s">
-        <v>252</v>
+        <v>247</v>
+      </c>
+      <c r="D82" s="79" t="s">
+        <v>248</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6377,13 +6310,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D83" s="81" t="s">
-        <v>255</v>
+        <v>250</v>
+      </c>
+      <c r="D83" s="79" t="s">
+        <v>251</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6398,13 +6331,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="D84" s="81" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>254</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -6419,13 +6352,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+      <c r="D85" s="79" t="s">
+        <v>257</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -6440,13 +6373,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="D86" s="81" t="s">
-        <v>264</v>
+        <v>259</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>260</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -6461,13 +6394,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="81" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>263</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6482,19 +6415,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D88" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H88" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6506,13 +6439,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D89" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -6527,13 +6460,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="81" t="s">
-        <v>270</v>
+        <v>265</v>
+      </c>
+      <c r="D90" s="79" t="s">
+        <v>266</v>
       </c>
       <c r="E90">
         <v>14</v>
@@ -6548,13 +6481,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" s="81" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>269</v>
       </c>
       <c r="E91">
         <v>13</v>
@@ -6569,13 +6502,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="D92" s="81" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="D92" s="79" t="s">
+        <v>272</v>
       </c>
       <c r="E92">
         <v>12</v>
@@ -6590,13 +6523,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="D93" s="81" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="D93" s="79" t="s">
+        <v>275</v>
       </c>
       <c r="E93">
         <v>11</v>
@@ -6611,13 +6544,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="D94" s="81" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>278</v>
       </c>
       <c r="E94">
         <v>10</v>
@@ -6632,13 +6565,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D95" s="81" t="s">
-        <v>356</v>
+        <v>280</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>352</v>
       </c>
       <c r="E95">
         <v>9</v>
@@ -6653,13 +6586,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" s="81" t="s">
-        <v>287</v>
+        <v>282</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>283</v>
       </c>
       <c r="E96">
         <v>8</v>
@@ -6674,13 +6607,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" s="81" t="s">
-        <v>357</v>
+        <v>285</v>
+      </c>
+      <c r="D97" s="79" t="s">
+        <v>353</v>
       </c>
       <c r="E97">
         <v>7</v>
@@ -6695,13 +6628,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D98" s="81" t="s">
-        <v>292</v>
+        <v>287</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>288</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -6716,13 +6649,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" s="81" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="D99" s="79" t="s">
+        <v>291</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -6737,13 +6670,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" s="81" t="s">
-        <v>358</v>
+        <v>293</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>354</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -6758,13 +6691,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D101" s="81" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="D101" s="79" t="s">
+        <v>296</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -6779,13 +6712,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="D102" s="81" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>299</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -6800,13 +6733,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="D103" s="81" t="s">
-        <v>359</v>
+        <v>301</v>
+      </c>
+      <c r="D103" s="79" t="s">
+        <v>355</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6821,13 +6754,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D104" s="81" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6842,13 +6775,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" s="79" t="s">
         <v>306</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D105" s="81" t="s">
-        <v>310</v>
       </c>
       <c r="E105">
         <v>66</v>
@@ -6863,13 +6796,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D106" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E106">
         <v>99</v>
@@ -6884,13 +6817,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D107" s="81" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>309</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -6905,19 +6838,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D108" s="81" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D108" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H108" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6929,13 +6862,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D109" s="81" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D109" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E109">
         <v>66</v>
@@ -6950,13 +6883,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D110" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E110">
         <v>99</v>
@@ -6971,19 +6904,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D111" s="81" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="D111" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="E111">
         <v>77</v>
       </c>
       <c r="F111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H111" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6995,19 +6928,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D112" s="81" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D112" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H112" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7019,13 +6952,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D113" s="81" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D113" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E113">
         <v>66</v>
@@ -7040,13 +6973,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D114" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D114" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E114">
         <v>99</v>
@@ -7061,19 +6994,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115" s="81" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="D115" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="E115">
         <v>77</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H115" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7085,19 +7018,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D116" s="81" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D116" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H116" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7109,13 +7042,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D117" s="81" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D117" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E117">
         <v>66</v>
@@ -7130,13 +7063,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D118" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D118" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E118">
         <v>99</v>
@@ -7151,19 +7084,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D119" s="81" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="D119" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="E119">
         <v>77</v>
       </c>
       <c r="F119" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H119" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7175,19 +7108,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D120" s="81" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D120" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H120" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7199,13 +7132,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D121" s="81" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D121" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E121">
         <v>66</v>
@@ -7220,13 +7153,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D122" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D122" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E122">
         <v>99</v>
@@ -7241,19 +7174,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D123" s="81" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="D123" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="E123">
         <v>77</v>
       </c>
       <c r="F123" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H123" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7265,19 +7198,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D124" s="81" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D124" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H124" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7289,13 +7222,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D125" s="81" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D125" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E125">
         <v>66</v>
@@ -7310,13 +7243,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D126" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D126" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E126">
         <v>99</v>
@@ -7331,19 +7264,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="D127" s="81" t="s">
-        <v>327</v>
+        <v>322</v>
+      </c>
+      <c r="D127" s="79" t="s">
+        <v>323</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H127" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7355,13 +7288,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D128" s="81" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D128" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E128">
         <v>66</v>
@@ -7376,19 +7309,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D129" s="81" t="s">
-        <v>360</v>
+        <v>307</v>
+      </c>
+      <c r="D129" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="E129">
         <v>99</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H129" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7400,19 +7333,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D130" s="81" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+      <c r="D130" s="79" t="s">
+        <v>309</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H130" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7424,13 +7357,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D131" s="81" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="D131" s="79" t="s">
+        <v>325</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7445,13 +7378,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="D132" s="81" t="s">
-        <v>331</v>
+        <v>326</v>
+      </c>
+      <c r="D132" s="79" t="s">
+        <v>327</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -7466,13 +7399,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="D133" s="81" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="D133" s="79" t="s">
+        <v>329</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -7487,13 +7420,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D134" s="81" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="D134" s="79" t="s">
+        <v>332</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -7508,13 +7441,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D135" s="81" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="D135" s="79" t="s">
+        <v>335</v>
       </c>
       <c r="E135">
         <v>3</v>
@@ -7529,13 +7462,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="D136" s="81" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="D136" s="79" t="s">
+        <v>338</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7550,13 +7483,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D137" s="81" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="D137" s="79" t="s">
+        <v>341</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7571,13 +7504,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D138" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D138" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7592,13 +7525,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D139" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D139" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -7613,13 +7546,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D140" s="81" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="D140" s="79" t="s">
+        <v>346</v>
       </c>
       <c r="E140">
         <v>99</v>
@@ -7634,13 +7567,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D141" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D141" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7655,13 +7588,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D142" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D142" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -7675,11 +7608,11 @@
       <c r="A143" s="35">
         <v>142</v>
       </c>
-      <c r="B143" s="82"/>
-      <c r="C143" s="84"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="82"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="80"/>
       <c r="H143" s="35" t="str">
         <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('142','', '','','','');</v>
@@ -7698,14 +7631,14 @@
       <c r="A145" s="35">
         <v>144</v>
       </c>
-      <c r="B145" s="94" t="s">
-        <v>384</v>
+      <c r="B145" s="92" t="s">
+        <v>380</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D145" s="81" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="D145" s="79" t="s">
+        <v>332</v>
       </c>
       <c r="E145" s="35">
         <v>4</v>
@@ -7720,13 +7653,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D146" s="81" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="D146" s="79" t="s">
+        <v>335</v>
       </c>
       <c r="E146" s="35">
         <v>3</v>
@@ -7741,13 +7674,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="D147" s="81" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="D147" s="79" t="s">
+        <v>338</v>
       </c>
       <c r="E147" s="35">
         <v>2</v>
@@ -7762,13 +7695,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D148" s="81" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="D148" s="79" t="s">
+        <v>341</v>
       </c>
       <c r="E148" s="35">
         <v>1</v>
@@ -7783,13 +7716,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D149" s="81" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="D149" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="E149" s="35">
         <v>1</v>
@@ -7804,13 +7737,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D150" s="81" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D150" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="E150" s="35">
         <v>2</v>
@@ -7825,13 +7758,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D151" s="81" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="D151" s="79" t="s">
+        <v>346</v>
       </c>
       <c r="E151" s="35">
         <v>99</v>
